--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.assignment/activity-rule.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.assignment/activity-rule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902D486E-D3D0-7447-A66C-207CE67BF346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B1A12A-C56A-C840-8A61-FE4C8ADADD07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67400" yWindow="-4440" windowWidth="47800" windowHeight="23220" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -330,10 +330,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>w.oa.vacation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>process.oa.assignment</t>
   </si>
   <si>
@@ -389,6 +385,10 @@
   </si>
   <si>
     <t>10ca9668-155f-4eda-b1ac-638dac922dac</t>
+  </si>
+  <si>
+    <t>w.oa.assignment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -914,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500280C7-B0AC-7C45-9420-F2551253A777}">
   <dimension ref="A2:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A21"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1065,10 +1065,10 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>31</v>
@@ -1092,7 +1092,7 @@
         <v>34</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="11" t="b">
@@ -1100,17 +1100,17 @@
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>36</v>
@@ -1134,7 +1134,7 @@
         <v>34</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="11" t="b">
@@ -1142,17 +1142,17 @@
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>31</v>
@@ -1176,7 +1176,7 @@
         <v>34</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="K7" s="9"/>
       <c r="L7" s="11" t="b">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="M7" s="11"/>
       <c r="N7" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>31</v>
@@ -1218,7 +1218,7 @@
         <v>34</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="11" t="b">
@@ -1226,17 +1226,17 @@
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>31</v>
@@ -1260,7 +1260,7 @@
         <v>34</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="11" t="b">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="M9" s="11"/>
       <c r="N9" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>31</v>
@@ -1302,7 +1302,7 @@
         <v>34</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="11" t="b">
@@ -1310,17 +1310,17 @@
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>36</v>
@@ -1344,7 +1344,7 @@
         <v>34</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="11" t="b">
@@ -1352,17 +1352,17 @@
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>36</v>
@@ -1386,7 +1386,7 @@
         <v>34</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="11" t="b">
@@ -1394,17 +1394,17 @@
       </c>
       <c r="M12" s="11"/>
       <c r="N12" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>36</v>
@@ -1428,7 +1428,7 @@
         <v>34</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>41</v>
@@ -1438,17 +1438,17 @@
       </c>
       <c r="M13" s="11"/>
       <c r="N13" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>36</v>
@@ -1472,7 +1472,7 @@
         <v>34</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="11" t="b">
@@ -1480,17 +1480,17 @@
       </c>
       <c r="M14" s="11"/>
       <c r="N14" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>36</v>
@@ -1514,7 +1514,7 @@
         <v>34</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="11" t="b">
@@ -1522,17 +1522,17 @@
       </c>
       <c r="M15" s="11"/>
       <c r="N15" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>44</v>
@@ -1556,7 +1556,7 @@
         <v>34</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="11" t="b">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="M16" s="11"/>
       <c r="N16" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>44</v>
@@ -1598,7 +1598,7 @@
         <v>34</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="K17" s="9"/>
       <c r="L17" s="11" t="b">
@@ -1606,17 +1606,17 @@
       </c>
       <c r="M17" s="11"/>
       <c r="N17" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>44</v>
@@ -1640,7 +1640,7 @@
         <v>34</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="K18" s="11" t="s">
         <v>41</v>
@@ -1650,17 +1650,17 @@
       </c>
       <c r="M18" s="11"/>
       <c r="N18" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>44</v>
@@ -1684,7 +1684,7 @@
         <v>34</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="K19" s="9"/>
       <c r="L19" s="11" t="b">
@@ -1692,17 +1692,17 @@
       </c>
       <c r="M19" s="11"/>
       <c r="N19" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>44</v>
@@ -1726,7 +1726,7 @@
         <v>34</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="11" t="b">
@@ -1734,17 +1734,17 @@
       </c>
       <c r="M20" s="11"/>
       <c r="N20" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>44</v>
@@ -1768,7 +1768,7 @@
         <v>34</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="K21" s="9"/>
       <c r="L21" s="11" t="b">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="M21" s="11"/>
       <c r="N21" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>

--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.assignment/activity-rule.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.assignment/activity-rule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B1A12A-C56A-C840-8A61-FE4C8ADADD07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467DC673-13B7-2646-BE3F-CAAD80200F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67400" yWindow="-4440" windowWidth="47800" windowHeight="23220" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="72200" yWindow="-7160" windowWidth="42560" windowHeight="27500" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-CDATA" sheetId="7" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="97">
   <si>
     <t>key</t>
   </si>
@@ -234,10 +234,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$zn.status == "FINISHED" and $zn.flowEnd == false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>暂存</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -254,6 +250,137 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>交接确认完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“${lo.realname}”暂存了${zw.name}工单：${zn.serial}。</t>
+  </si>
+  <si>
+    <t>“${lo.realname}”撤销了${zw.name}工单：${zn.serial}。</t>
+  </si>
+  <si>
+    <t>“${lo.realname}”关闭了${zw.name}工单：${zn.serial}。</t>
+  </si>
+  <si>
+    <t>“${lo.realname}”拒绝了任务单：${zn.taskSerial}，审批未通过。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“${lo.realname}”驳回了任务单：${zn.taskSerial}，审批未通过。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务单：${zn.taskSerial}通过审批，工作交接确认完成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务单：${zn.taskSerial}分派给了“${un.acceptedBy.realname}”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务单：${zn.taskSerial}通过了审批，被${un.closeBy.realname}关闭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“${un.openBy.realname}”提交了${zw.name}工单：${zn.serial}。</t>
+  </si>
+  <si>
+    <t>“${lo.realname}”将任务单：${zn.taskSerial}转给了“${un.acceptedBy.realname}”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$zn.status == "PENDING" and $zn.acceptedBy != null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$zn.flowEnd == true and $zn.phase == "FINISHED"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$zn.flowEnd == true and $zn.phase == "END"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">$zn.flowEnd == true and $zn.phase == "CANCELED" </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>process.oa.assignment</t>
+  </si>
+  <si>
+    <t>JSON:plugin/erp/oob/rule/process.oa.assignment/activity-initialize.json</t>
+  </si>
+  <si>
+    <t>8565aa86-3999-459b-b1fa-26dc43ec40ad</t>
+  </si>
+  <si>
+    <t>4007fc2d-03e8-4a7c-a9e1-b44ef896e95c</t>
+  </si>
+  <si>
+    <t>dc610ef4-13f4-4fa5-bf58-ce7ffacbfc54</t>
+  </si>
+  <si>
+    <t>00189dd4-f782-4633-9553-8cb7c559d0a2</t>
+  </si>
+  <si>
+    <t>74fb3875-ef6f-4303-8978-31a8df7e178c</t>
+  </si>
+  <si>
+    <t>c96f19a5-5d5b-4a05-adc2-0d61e8b53ad4</t>
+  </si>
+  <si>
+    <t>a113939a-f063-409c-afa9-552d14ab1752</t>
+  </si>
+  <si>
+    <t>0c4d64ad-19c6-4f22-8469-9d3bb5bd9fe6</t>
+  </si>
+  <si>
+    <t>bf771c99-e3f3-4723-86cb-e9af6ff717f2</t>
+  </si>
+  <si>
+    <t>c13681ac-912f-4b6c-9061-8e5315ed06e6</t>
+  </si>
+  <si>
+    <t>4d5e6e0b-41aa-49dd-abb8-028b2e491dc7</t>
+  </si>
+  <si>
+    <t>da7fdeec-9c5e-423a-8e30-2e749c0be66f</t>
+  </si>
+  <si>
+    <t>4834bbf7-d140-4057-9d73-5ea464885610</t>
+  </si>
+  <si>
+    <t>a8e43ff2-6572-42b7-98d2-196e848b7abb</t>
+  </si>
+  <si>
+    <t>9dda7db5-5cef-42b6-bd0a-d3de369014aa</t>
+  </si>
+  <si>
+    <t>0a874d1c-16db-4938-b2bf-2fab5704c898</t>
+  </si>
+  <si>
+    <t>10ca9668-155f-4eda-b1ac-638dac922dac</t>
+  </si>
+  <si>
+    <t>w.oa.assignment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$zn.status == "PENDING" and $zn.acceptedBy != null</t>
+  </si>
+  <si>
+    <t>$zn.status == "PENDING" and $zo.acceptedBy != null</t>
+  </si>
+  <si>
+    <t>$zn.status == "DRAFT" and $zn.phase == "REJECTED"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$zn.status == "DRAFT" and $zn.phase == "REDO"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">$zn.flowEnd == true and $zn.status == "CANCELED" </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -262,132 +389,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$zn.status == "DRAFT" and $zn.phase == "REDO"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$zn.status == "DRAFT" and $zn.phase == "REJECTED"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$zo.phase == "DRAFT"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交接确认完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“${lo.realname}”暂存了${zw.name}工单：${zn.serial}。</t>
-  </si>
-  <si>
-    <t>“${lo.realname}”撤销了${zw.name}工单：${zn.serial}。</t>
-  </si>
-  <si>
-    <t>“${lo.realname}”关闭了${zw.name}工单：${zn.serial}。</t>
-  </si>
-  <si>
-    <t>“${lo.realname}”拒绝了任务单：${zn.taskSerial}，审批未通过。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“${lo.realname}”驳回了任务单：${zn.taskSerial}，审批未通过。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务单：${zn.taskSerial}通过审批，工作交接确认完成。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务单：${zn.taskSerial}分派给了“${un.acceptedBy.realname}”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务单：${zn.taskSerial}通过了审批，被${un.closeBy.realname}关闭。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“${un.openBy.realname}”提交了${zw.name}工单：${zn.serial}。</t>
-  </si>
-  <si>
-    <t>“${lo.realname}”将任务单：${zn.taskSerial}转给了“${un.acceptedBy.realname}”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$zn.status == "PENDING" and $zn.acceptedBy != null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$zn.flowEnd == true and $zn.phase == "FINISHED"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$zn.flowEnd == true and $zn.phase == "END"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">$zn.flowEnd == true and $zn.phase == "CANCELED" </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>process.oa.assignment</t>
-  </si>
-  <si>
-    <t>JSON:plugin/erp/oob/rule/process.oa.assignment/activity-initialize.json</t>
-  </si>
-  <si>
-    <t>8565aa86-3999-459b-b1fa-26dc43ec40ad</t>
-  </si>
-  <si>
-    <t>4007fc2d-03e8-4a7c-a9e1-b44ef896e95c</t>
-  </si>
-  <si>
-    <t>dc610ef4-13f4-4fa5-bf58-ce7ffacbfc54</t>
-  </si>
-  <si>
-    <t>00189dd4-f782-4633-9553-8cb7c559d0a2</t>
-  </si>
-  <si>
-    <t>74fb3875-ef6f-4303-8978-31a8df7e178c</t>
-  </si>
-  <si>
-    <t>c96f19a5-5d5b-4a05-adc2-0d61e8b53ad4</t>
-  </si>
-  <si>
-    <t>a113939a-f063-409c-afa9-552d14ab1752</t>
-  </si>
-  <si>
-    <t>0c4d64ad-19c6-4f22-8469-9d3bb5bd9fe6</t>
-  </si>
-  <si>
-    <t>bf771c99-e3f3-4723-86cb-e9af6ff717f2</t>
-  </si>
-  <si>
-    <t>c13681ac-912f-4b6c-9061-8e5315ed06e6</t>
-  </si>
-  <si>
-    <t>4d5e6e0b-41aa-49dd-abb8-028b2e491dc7</t>
-  </si>
-  <si>
-    <t>da7fdeec-9c5e-423a-8e30-2e749c0be66f</t>
-  </si>
-  <si>
-    <t>4834bbf7-d140-4057-9d73-5ea464885610</t>
-  </si>
-  <si>
-    <t>a8e43ff2-6572-42b7-98d2-196e848b7abb</t>
-  </si>
-  <si>
-    <t>9dda7db5-5cef-42b6-bd0a-d3de369014aa</t>
-  </si>
-  <si>
-    <t>0a874d1c-16db-4938-b2bf-2fab5704c898</t>
-  </si>
-  <si>
-    <t>10ca9668-155f-4eda-b1ac-638dac922dac</t>
-  </si>
-  <si>
-    <t>w.oa.assignment</t>
+    <t>$zo.phase == "PENDING" and $zn.flowEnd == false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$zo.phase == "DRAFT" and $zn.flowEnd == false</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -395,7 +401,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -421,6 +427,14 @@
     <font>
       <sz val="16"/>
       <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
@@ -551,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -598,6 +612,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -914,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500280C7-B0AC-7C45-9420-F2551253A777}">
   <dimension ref="A2:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:J21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1065,34 +1081,34 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" s="9">
         <v>1005</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I5" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="11" t="b">
@@ -1100,23 +1116,23 @@
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" s="9">
         <v>1005</v>
@@ -1125,16 +1141,16 @@
         <v>37</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="11" t="b">
@@ -1142,23 +1158,23 @@
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" s="9">
         <v>1010</v>
@@ -1167,16 +1183,16 @@
         <v>40</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K7" s="9"/>
       <c r="L7" s="11" t="b">
@@ -1184,41 +1200,41 @@
       </c>
       <c r="M7" s="11"/>
       <c r="N7" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" s="9">
         <v>1010</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="11" t="b">
@@ -1226,23 +1242,23 @@
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" s="17">
         <v>1015</v>
@@ -1251,16 +1267,16 @@
         <v>42</v>
       </c>
       <c r="G9" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>58</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>64</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="11" t="b">
@@ -1268,23 +1284,23 @@
       </c>
       <c r="M9" s="11"/>
       <c r="N9" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" s="17">
         <v>1015</v>
@@ -1293,16 +1309,16 @@
         <v>43</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="11" t="b">
@@ -1310,23 +1326,23 @@
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" s="17">
         <v>1005</v>
@@ -1335,16 +1351,16 @@
         <v>37</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I11" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="11" t="b">
@@ -1352,23 +1368,23 @@
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" s="9">
         <v>1010</v>
@@ -1376,17 +1392,17 @@
       <c r="F12" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="11" t="s">
-        <v>71</v>
+      <c r="G12" s="22" t="s">
+        <v>89</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="11" t="b">
@@ -1394,17 +1410,17 @@
       </c>
       <c r="M12" s="11"/>
       <c r="N12" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>36</v>
@@ -1418,17 +1434,17 @@
       <c r="F13" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>49</v>
+      <c r="G13" s="23" t="s">
+        <v>90</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>41</v>
@@ -1438,23 +1454,23 @@
       </c>
       <c r="M13" s="11"/>
       <c r="N13" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14" s="9">
         <v>1015</v>
@@ -1463,16 +1479,16 @@
         <v>40</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="11" t="b">
@@ -1480,41 +1496,41 @@
       </c>
       <c r="M14" s="11"/>
       <c r="N14" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" s="9">
         <v>1015</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="11" t="b">
@@ -1522,41 +1538,41 @@
       </c>
       <c r="M15" s="11"/>
       <c r="N15" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" s="9">
         <v>1005</v>
       </c>
       <c r="F16" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>66</v>
       </c>
       <c r="I16" s="18" t="s">
         <v>34</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="11" t="b">
@@ -1564,23 +1580,23 @@
       </c>
       <c r="M16" s="11"/>
       <c r="N16" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="9">
         <v>1010</v>
@@ -1589,16 +1605,16 @@
         <v>46</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I17" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K17" s="9"/>
       <c r="L17" s="11" t="b">
@@ -1606,17 +1622,17 @@
       </c>
       <c r="M17" s="11"/>
       <c r="N17" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>44</v>
@@ -1634,13 +1650,13 @@
         <v>49</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K18" s="11" t="s">
         <v>41</v>
@@ -1650,23 +1666,23 @@
       </c>
       <c r="M18" s="11"/>
       <c r="N18" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" s="9">
         <v>1015</v>
@@ -1675,16 +1691,16 @@
         <v>40</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K19" s="9"/>
       <c r="L19" s="11" t="b">
@@ -1692,41 +1708,41 @@
       </c>
       <c r="M19" s="11"/>
       <c r="N19" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E20" s="9">
         <v>1015</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="11" t="b">
@@ -1734,23 +1750,23 @@
       </c>
       <c r="M20" s="11"/>
       <c r="N20" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" s="9">
         <v>1020</v>
@@ -1759,16 +1775,16 @@
         <v>48</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I21" s="18" t="s">
         <v>34</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K21" s="9"/>
       <c r="L21" s="11" t="b">
@@ -1776,7 +1792,7 @@
       </c>
       <c r="M21" s="11"/>
       <c r="N21" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
